--- a/Code/Results/Cases/Case_3_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.070583929908253</v>
+        <v>3.073632338554148</v>
       </c>
       <c r="C2">
-        <v>0.9043233274683473</v>
+        <v>0.3703361064904982</v>
       </c>
       <c r="D2">
-        <v>0.007637992889131695</v>
+        <v>0.01890383840275156</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.308405656543655</v>
+        <v>3.45912806744245</v>
       </c>
       <c r="G2">
-        <v>0.0008168895402223823</v>
+        <v>0.002586810006626408</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.155046292955177</v>
+        <v>1.960939863284167</v>
       </c>
       <c r="J2">
-        <v>0.04532772187251943</v>
+        <v>0.1245577869196595</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3832491853997055</v>
+        <v>0.5043837092371888</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9895607661225654</v>
+        <v>2.077668157563764</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.559122499501541</v>
+        <v>2.958093105352759</v>
       </c>
       <c r="C3">
-        <v>0.7800322340191315</v>
+        <v>0.3388644192335448</v>
       </c>
       <c r="D3">
-        <v>0.006530391828940552</v>
+        <v>0.01848680911183287</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.15128338375203</v>
+        <v>3.444573819065312</v>
       </c>
       <c r="G3">
-        <v>0.0008257417128811831</v>
+        <v>0.002592436514923426</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.100782417248027</v>
+        <v>1.961259606711636</v>
       </c>
       <c r="J3">
-        <v>0.04634466134537174</v>
+        <v>0.1252492598013513</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3450066466530188</v>
+        <v>0.4977875773932254</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.049436329748975</v>
+        <v>2.100866397189037</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.250401681390372</v>
+        <v>2.888837321554661</v>
       </c>
       <c r="C4">
-        <v>0.7050156948662618</v>
+        <v>0.3197376202043927</v>
       </c>
       <c r="D4">
-        <v>0.005886134634762286</v>
+        <v>0.01822512993758885</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.059903329124595</v>
+        <v>3.437547208888589</v>
       </c>
       <c r="G4">
-        <v>0.0008313250639890123</v>
+        <v>0.002596073570168111</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.070149833859084</v>
+        <v>1.962495882925005</v>
       </c>
       <c r="J4">
-        <v>0.04700576636744902</v>
+        <v>0.1257000761031009</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3220818280715889</v>
+        <v>0.493981482341681</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.087891321406563</v>
+        <v>2.115833324808534</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.125770799946054</v>
+        <v>2.86103817259783</v>
       </c>
       <c r="C5">
-        <v>0.6747261358989647</v>
+        <v>0.3119922203108558</v>
       </c>
       <c r="D5">
-        <v>0.005631106099395211</v>
+        <v>0.01811704232074618</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.023838452343497</v>
+        <v>3.435162770495523</v>
       </c>
       <c r="G5">
-        <v>0.0008336392384082818</v>
+        <v>0.002597601712332191</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.058290052291888</v>
+        <v>1.963260515479668</v>
       </c>
       <c r="J5">
-        <v>0.04728426871080949</v>
+        <v>0.1258903982789104</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3128662893134333</v>
+        <v>0.4924917980478085</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.103970594038003</v>
+        <v>2.122114019259399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.105142443627471</v>
+        <v>2.856447680824374</v>
       </c>
       <c r="C6">
-        <v>0.6697122282174917</v>
+        <v>0.3107090402963024</v>
       </c>
       <c r="D6">
-        <v>0.005589171615618227</v>
+        <v>0.01809900570787981</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.017917789183031</v>
+        <v>3.43479572796511</v>
       </c>
       <c r="G6">
-        <v>0.0008340259022563939</v>
+        <v>0.002597858242773705</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.056356945179999</v>
+        <v>1.963403216970079</v>
       </c>
       <c r="J6">
-        <v>0.04733105956468275</v>
+        <v>0.1259224007158455</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3113433271010138</v>
+        <v>0.4922481409673622</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.106664759074917</v>
+        <v>2.123167880765642</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.248716311125747</v>
+        <v>2.888460700207133</v>
       </c>
       <c r="C7">
-        <v>0.7046061226966742</v>
+        <v>0.3196329657124011</v>
       </c>
       <c r="D7">
-        <v>0.005882666683305615</v>
+        <v>0.01822367815569947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.059412330957713</v>
+        <v>3.437513113908864</v>
       </c>
       <c r="G7">
-        <v>0.0008313561140906142</v>
+        <v>0.002596093992636226</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.069987430922517</v>
+        <v>1.96250513979173</v>
       </c>
       <c r="J7">
-        <v>0.04700948568193386</v>
+        <v>0.1257026160740704</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3219570487210888</v>
+        <v>0.4939611436299884</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.088106538919007</v>
+        <v>2.115917293755771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.893026139042263</v>
+        <v>3.033444019841966</v>
       </c>
       <c r="C8">
-        <v>0.8611690509557661</v>
+        <v>0.359443421372049</v>
       </c>
       <c r="D8">
-        <v>0.007247710483014203</v>
+        <v>0.01876119063580539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.253105034996821</v>
+        <v>3.453712614405362</v>
       </c>
       <c r="G8">
-        <v>0.0008199120872574814</v>
+        <v>0.002588712273780003</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.135745951000999</v>
+        <v>1.960833861341015</v>
       </c>
       <c r="J8">
-        <v>0.04567066304406353</v>
+        <v>0.124790764980852</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3699392995858091</v>
+        <v>0.5020587167572899</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.009844359885541</v>
+        <v>2.085516659256939</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.206855812122342</v>
+        <v>3.331185931307061</v>
       </c>
       <c r="C9">
-        <v>1.180821758104628</v>
+        <v>0.4391056434031384</v>
       </c>
       <c r="D9">
-        <v>0.01028507160046566</v>
+        <v>0.01977237502270768</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.678733721142663</v>
+        <v>3.500696507374158</v>
       </c>
       <c r="G9">
-        <v>0.0007985618814884123</v>
+        <v>0.002575676458970181</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.28861035336611</v>
+        <v>1.965840612816891</v>
       </c>
       <c r="J9">
-        <v>0.04334290198983659</v>
+        <v>0.1232104304758552</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4691159250595263</v>
+        <v>0.5198759791533405</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8706215175658585</v>
+        <v>2.031650522454207</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.215591066219645</v>
+        <v>3.558228390742954</v>
       </c>
       <c r="C10">
-        <v>1.427038325993124</v>
+        <v>0.4986550978842956</v>
       </c>
       <c r="D10">
-        <v>0.01285896411309118</v>
+        <v>0.02049158905366966</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.027783843621506</v>
+        <v>3.544590010141093</v>
       </c>
       <c r="G10">
-        <v>0.0007834114696266653</v>
+        <v>0.002566966641655455</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.419566738857853</v>
+        <v>1.9746181520226</v>
       </c>
       <c r="J10">
-        <v>0.04182409512712937</v>
+        <v>0.1221753764974665</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5461291909614374</v>
+        <v>0.5341532004237308</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7783157078666818</v>
+        <v>1.995595086843537</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.687230006918583</v>
+        <v>3.663341173848494</v>
       </c>
       <c r="C11">
-        <v>1.542470137698331</v>
+        <v>0.5259787875648385</v>
       </c>
       <c r="D11">
-        <v>0.01413711771632364</v>
+        <v>0.02081416415385284</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.196643945338963</v>
+        <v>3.566615979968333</v>
       </c>
       <c r="G11">
-        <v>0.0007766022261546738</v>
+        <v>0.002563190555188475</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.484243383656491</v>
+        <v>1.979729463269123</v>
       </c>
       <c r="J11">
-        <v>0.04117725293415475</v>
+        <v>0.1217317269264111</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5823355729584136</v>
+        <v>0.5409073805986253</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7388275522813856</v>
+        <v>1.979960181839239</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.867979912647229</v>
+        <v>3.703409310137488</v>
       </c>
       <c r="C12">
-        <v>1.586766262189997</v>
+        <v>0.5363600521629905</v>
       </c>
       <c r="D12">
-        <v>0.01463983577363237</v>
+        <v>0.02093569682340579</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.262246153137909</v>
+        <v>3.575254335010754</v>
       </c>
       <c r="G12">
-        <v>0.0007740324676092219</v>
+        <v>0.002561787238779547</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.509570500511956</v>
+        <v>1.981826657385469</v>
       </c>
       <c r="J12">
-        <v>0.04093889502930459</v>
+        <v>0.1215676297474833</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5962405636437467</v>
+        <v>0.543502389313403</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7242673020615484</v>
+        <v>1.974150263844777</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.828951057271922</v>
+        <v>3.694768152185759</v>
       </c>
       <c r="C13">
-        <v>1.577198697183746</v>
+        <v>0.5341227212744002</v>
       </c>
       <c r="D13">
-        <v>0.01453067634435179</v>
+        <v>0.02090954947095014</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.248040132102858</v>
+        <v>3.573380649539303</v>
       </c>
       <c r="G13">
-        <v>0.000774585576319405</v>
+        <v>0.002562088287409951</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.504076928803627</v>
+        <v>1.981367786212815</v>
       </c>
       <c r="J13">
-        <v>0.04098993238184789</v>
+        <v>0.1216027975422023</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5932367804918783</v>
+        <v>0.5429418459536208</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7273850521268628</v>
+        <v>1.975396604548635</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.702055351389163</v>
+        <v>3.666632302259416</v>
       </c>
       <c r="C14">
-        <v>1.546102118034867</v>
+        <v>0.5268321675737866</v>
       </c>
       <c r="D14">
-        <v>0.01417808097418316</v>
+        <v>0.02082417489413224</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.202006535394418</v>
+        <v>3.567320689203427</v>
       </c>
       <c r="G14">
-        <v>0.0007763906546079035</v>
+        <v>0.002563074571331914</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.486309685643249</v>
+        <v>1.979898756140727</v>
       </c>
       <c r="J14">
-        <v>0.04115750952435349</v>
+        <v>0.1217181483718548</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5834754884429145</v>
+        <v>0.5411201247554374</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7376215874125762</v>
+        <v>1.979479975836064</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.624618215548026</v>
+        <v>3.649432721242135</v>
       </c>
       <c r="C15">
-        <v>1.527133643098466</v>
+        <v>0.5223709900527638</v>
       </c>
       <c r="D15">
-        <v>0.01396464905313799</v>
+        <v>0.02077180107144905</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.174032329972619</v>
+        <v>3.56364759182236</v>
       </c>
       <c r="G15">
-        <v>0.0007774973568763581</v>
+        <v>0.002563682159067787</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.475538788252095</v>
+        <v>1.979020009526252</v>
       </c>
       <c r="J15">
-        <v>0.04126102116388886</v>
+        <v>0.1217893121650757</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5775225582757457</v>
+        <v>0.5400091330667181</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7439440134088926</v>
+        <v>1.981995584715008</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.185051149610445</v>
+        <v>3.551395936781603</v>
       </c>
       <c r="C16">
-        <v>1.419571105531645</v>
+        <v>0.4968742037954712</v>
       </c>
       <c r="D16">
-        <v>0.01277786134798653</v>
+        <v>0.02047041903145264</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.016968477904896</v>
+        <v>3.543192119383605</v>
       </c>
       <c r="G16">
-        <v>0.0007838578749725424</v>
+        <v>0.002567217149086649</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.415451045708465</v>
+        <v>1.974306690971957</v>
       </c>
       <c r="J16">
-        <v>0.04186727526101564</v>
+        <v>0.1222049166967789</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5437887444053757</v>
+        <v>0.5337170224869254</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.780949442326083</v>
+        <v>1.996632330753393</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.918870856882052</v>
+        <v>3.491722992193274</v>
       </c>
       <c r="C17">
-        <v>1.354524104754717</v>
+        <v>0.4812932511466101</v>
       </c>
       <c r="D17">
-        <v>0.01207945847838765</v>
+        <v>0.02028438259057452</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.923336087685726</v>
+        <v>3.531171716754557</v>
       </c>
       <c r="G17">
-        <v>0.0007877789289291437</v>
+        <v>0.002569433297844114</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.379964487308015</v>
+        <v>1.97170225029538</v>
       </c>
       <c r="J17">
-        <v>0.04225064834272807</v>
+        <v>0.1224668376859768</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5234118061990074</v>
+        <v>0.5299234864269238</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8043142189127863</v>
+        <v>2.005808204079081</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.766950854736763</v>
+        <v>3.457572878152519</v>
       </c>
       <c r="C18">
-        <v>1.317427134979766</v>
+        <v>0.4723535156290382</v>
       </c>
       <c r="D18">
-        <v>0.0116876283980929</v>
+        <v>0.02017694394210778</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.870415476324325</v>
+        <v>3.524451567987455</v>
       </c>
       <c r="G18">
-        <v>0.0007900422152478222</v>
+        <v>0.002570725488609922</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.360027143199872</v>
+        <v>1.970309460114706</v>
       </c>
       <c r="J18">
-        <v>0.04247528587672811</v>
+        <v>0.1226200485505506</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5118001777005219</v>
+        <v>0.5277659578456166</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8179863041009412</v>
+        <v>2.011158082775609</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.715707048178103</v>
+        <v>3.446039778058037</v>
       </c>
       <c r="C19">
-        <v>1.304918473497594</v>
+        <v>0.4693304356524663</v>
       </c>
       <c r="D19">
-        <v>0.0115565653690517</v>
+        <v>0.02014049101540394</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.852651983468803</v>
+        <v>3.522209456352869</v>
       </c>
       <c r="G19">
-        <v>0.0007908099885011973</v>
+        <v>0.00257116601624155</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.353355162213063</v>
+        <v>1.969855930963149</v>
       </c>
       <c r="J19">
-        <v>0.04255204675184121</v>
+        <v>0.1226723631971183</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5078866079710593</v>
+        <v>0.5270396473714243</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8226545631233648</v>
+        <v>2.012981841014991</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.94708193880291</v>
+        <v>3.498057451020486</v>
       </c>
       <c r="C20">
-        <v>1.361415103113075</v>
+        <v>0.4829495866722482</v>
       </c>
       <c r="D20">
-        <v>0.01215276072351124</v>
+        <v>0.02030423124861969</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.933205292112831</v>
+        <v>3.532431253828065</v>
       </c>
       <c r="G20">
-        <v>0.0007873607196212662</v>
+        <v>0.002569195572537364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.383692385043233</v>
+        <v>1.971968602097633</v>
       </c>
       <c r="J20">
-        <v>0.04220940831946329</v>
+        <v>0.1224386907732695</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5255695452797369</v>
+        <v>0.5303247878436821</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.80180262807378</v>
+        <v>2.004823945623571</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.739266604929981</v>
+        <v>3.674889304310398</v>
       </c>
       <c r="C21">
-        <v>1.555219274931005</v>
+        <v>0.5289726414971483</v>
       </c>
       <c r="D21">
-        <v>0.01428111021346012</v>
+        <v>0.02084926795546949</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.215480892447147</v>
+        <v>3.569092557023879</v>
       </c>
       <c r="G21">
-        <v>0.0007758602489757262</v>
+        <v>0.002562784154946245</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.491504802997696</v>
+        <v>1.980325852006857</v>
       </c>
       <c r="J21">
-        <v>0.04110810713189927</v>
+        <v>0.1216841611683694</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5863371173747396</v>
+        <v>0.5416541944507998</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7346039135231877</v>
+        <v>1.978277583595535</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.269718438346274</v>
+        <v>3.791999661789475</v>
       </c>
       <c r="C22">
-        <v>1.685341394150612</v>
+        <v>0.5592520627670297</v>
       </c>
       <c r="D22">
-        <v>0.01578308785061644</v>
+        <v>0.02120188968329195</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.409750521606668</v>
+        <v>3.594788219805594</v>
       </c>
       <c r="G22">
-        <v>0.000768393278366253</v>
+        <v>0.002558748932523246</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.566893810495756</v>
+        <v>1.986730422557542</v>
       </c>
       <c r="J22">
-        <v>0.04042687815711332</v>
+        <v>0.1212137800318018</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6272000270276834</v>
+        <v>0.5492763292830602</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6929956172795784</v>
+        <v>1.961573329270614</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.985327218459361</v>
+        <v>3.729354343073112</v>
       </c>
       <c r="C23">
-        <v>1.615542355055254</v>
+        <v>0.5430727751992208</v>
       </c>
       <c r="D23">
-        <v>0.01497007070586776</v>
+        <v>0.02101400348517224</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.305092719618216</v>
+        <v>3.580914645627018</v>
       </c>
       <c r="G23">
-        <v>0.0007723751861182317</v>
+        <v>0.002560888472099108</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.526169138805756</v>
+        <v>1.983225653933246</v>
       </c>
       <c r="J23">
-        <v>0.04078684583044812</v>
+        <v>0.1214627525971448</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6052762507768676</v>
+        <v>0.545188315536123</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7149791588806451</v>
+        <v>1.970429521267704</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.934324272708238</v>
+        <v>3.495193154312801</v>
       </c>
       <c r="C24">
-        <v>1.3582987569078</v>
+        <v>0.4822007014853966</v>
       </c>
       <c r="D24">
-        <v>0.01211959083375191</v>
+        <v>0.02029525918032427</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.928740606148637</v>
+        <v>3.531861223743675</v>
       </c>
       <c r="G24">
-        <v>0.0007875497637090079</v>
+        <v>0.002569302991709379</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.382005563625043</v>
+        <v>1.971847858899793</v>
       </c>
       <c r="J24">
-        <v>0.04222803977312584</v>
+        <v>0.1224514078030632</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5245937114498815</v>
+        <v>0.5301432865100679</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8029373751841433</v>
+        <v>2.00526869670469</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.844810153965341</v>
+        <v>3.24919047076753</v>
       </c>
       <c r="C25">
-        <v>1.09264247519809</v>
+        <v>0.4173791349065255</v>
       </c>
       <c r="D25">
-        <v>0.009413167375402764</v>
+        <v>0.0195031630458562</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.55787605288242</v>
+        <v>3.486347040646393</v>
       </c>
       <c r="G25">
-        <v>0.000804233382324673</v>
+        <v>0.002579049906938861</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.244304726594336</v>
+        <v>1.963594279161981</v>
       </c>
       <c r="J25">
-        <v>0.04393979627603173</v>
+        <v>0.1236157752277496</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4416406200703591</v>
+        <v>0.5148479177941994</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9066353152612976</v>
+        <v>2.045605704023902</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_132/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.073632338554148</v>
+        <v>4.07058392990831</v>
       </c>
       <c r="C2">
-        <v>0.3703361064904982</v>
+        <v>0.9043233274683473</v>
       </c>
       <c r="D2">
-        <v>0.01890383840275156</v>
+        <v>0.007637992889126366</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.45912806744245</v>
+        <v>2.308405656543655</v>
       </c>
       <c r="G2">
-        <v>0.002586810006626408</v>
+        <v>0.0008168895402797986</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.960939863284167</v>
+        <v>1.155046292955198</v>
       </c>
       <c r="J2">
-        <v>0.1245577869196595</v>
+        <v>0.04532772187239953</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5043837092371888</v>
+        <v>0.3832491853996345</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.077668157563764</v>
+        <v>0.9895607661226187</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.958093105352759</v>
+        <v>3.559122499501427</v>
       </c>
       <c r="C3">
-        <v>0.3388644192335448</v>
+        <v>0.7800322340194725</v>
       </c>
       <c r="D3">
-        <v>0.01848680911183287</v>
+        <v>0.006530391828841076</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.444573819065312</v>
+        <v>2.15128338375203</v>
       </c>
       <c r="G3">
-        <v>0.002592436514923426</v>
+        <v>0.0008257417130390342</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.961259606711636</v>
+        <v>1.100782417248027</v>
       </c>
       <c r="J3">
-        <v>0.1252492598013513</v>
+        <v>0.0463446613453673</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4977875773932254</v>
+        <v>0.345006646653033</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.100866397189037</v>
+        <v>1.049436329748978</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.888837321554661</v>
+        <v>3.250401681390485</v>
       </c>
       <c r="C4">
-        <v>0.3197376202043927</v>
+        <v>0.7050156948662618</v>
       </c>
       <c r="D4">
-        <v>0.01822512993758885</v>
+        <v>0.005886134634943474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.437547208888589</v>
+        <v>2.05990332912458</v>
       </c>
       <c r="G4">
-        <v>0.002596073570168111</v>
+        <v>0.0008313250639874203</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.962495882925005</v>
+        <v>1.070149833859077</v>
       </c>
       <c r="J4">
-        <v>0.1257000761031009</v>
+        <v>0.04700576636732556</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.493981482341681</v>
+        <v>0.3220818280715889</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.115833324808534</v>
+        <v>1.087891321406492</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.86103817259783</v>
+        <v>3.12577079994611</v>
       </c>
       <c r="C5">
-        <v>0.3119922203108558</v>
+        <v>0.6747261358992205</v>
       </c>
       <c r="D5">
-        <v>0.01811704232074618</v>
+        <v>0.005631106099382777</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.435162770495523</v>
+        <v>2.023838452343483</v>
       </c>
       <c r="G5">
-        <v>0.002597601712332191</v>
+        <v>0.0008336392385295075</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.963260515479668</v>
+        <v>1.058290052291866</v>
       </c>
       <c r="J5">
-        <v>0.1258903982789104</v>
+        <v>0.04728426871084324</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4924917980478085</v>
+        <v>0.3128662893134475</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.122114019259399</v>
+        <v>1.103970594037971</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.856447680824374</v>
+        <v>3.105142443627415</v>
       </c>
       <c r="C6">
-        <v>0.3107090402963024</v>
+        <v>0.6697122282174917</v>
       </c>
       <c r="D6">
-        <v>0.01809900570787981</v>
+        <v>0.005589171615699939</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.43479572796511</v>
+        <v>2.017917789183016</v>
       </c>
       <c r="G6">
-        <v>0.002597858242773705</v>
+        <v>0.0008340259023135962</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.963403216970079</v>
+        <v>1.056356945179978</v>
       </c>
       <c r="J6">
-        <v>0.1259224007158455</v>
+        <v>0.04733105956465966</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4922481409673622</v>
+        <v>0.3113433271010564</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.123167880765642</v>
+        <v>1.106664759074903</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.888460700207133</v>
+        <v>3.248716311125747</v>
       </c>
       <c r="C7">
-        <v>0.3196329657124011</v>
+        <v>0.7046061226964753</v>
       </c>
       <c r="D7">
-        <v>0.01822367815569947</v>
+        <v>0.005882666683387328</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.437513113908864</v>
+        <v>2.059412330957699</v>
       </c>
       <c r="G7">
-        <v>0.002596093992636226</v>
+        <v>0.0008313561140587122</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.96250513979173</v>
+        <v>1.069987430922524</v>
       </c>
       <c r="J7">
-        <v>0.1257026160740704</v>
+        <v>0.04700948568185392</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4939611436299884</v>
+        <v>0.3219570487210888</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.115917293755771</v>
+        <v>1.088106538918936</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.033444019841966</v>
+        <v>3.893026139042149</v>
       </c>
       <c r="C8">
-        <v>0.359443421372049</v>
+        <v>0.8611690509551977</v>
       </c>
       <c r="D8">
-        <v>0.01876119063580539</v>
+        <v>0.007247710483229142</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.453712614405362</v>
+        <v>2.253105034996821</v>
       </c>
       <c r="G8">
-        <v>0.002588712273780003</v>
+        <v>0.0008199120872134087</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.960833861341015</v>
+        <v>1.135745951000999</v>
       </c>
       <c r="J8">
-        <v>0.124790764980852</v>
+        <v>0.04567066304417011</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5020587167572899</v>
+        <v>0.3699392995857522</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.085516659256939</v>
+        <v>1.009844359885541</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.331185931307061</v>
+        <v>5.206855812122683</v>
       </c>
       <c r="C9">
-        <v>0.4391056434031384</v>
+        <v>1.180821758104344</v>
       </c>
       <c r="D9">
-        <v>0.01977237502270768</v>
+        <v>0.01028507160033421</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.500696507374158</v>
+        <v>2.678733721142649</v>
       </c>
       <c r="G9">
-        <v>0.002575676458970181</v>
+        <v>0.0007985618814857466</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.965840612816891</v>
+        <v>1.28861035336611</v>
       </c>
       <c r="J9">
-        <v>0.1232104304758552</v>
+        <v>0.04334290198980373</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5198759791533405</v>
+        <v>0.4691159250595973</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.031650522454207</v>
+        <v>0.870621517565823</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.558228390742954</v>
+        <v>6.215591066219815</v>
       </c>
       <c r="C10">
-        <v>0.4986550978842956</v>
+        <v>1.427038325992953</v>
       </c>
       <c r="D10">
-        <v>0.02049158905366966</v>
+        <v>0.01285896411307519</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.544590010141093</v>
+        <v>3.027783843621506</v>
       </c>
       <c r="G10">
-        <v>0.002566966641655455</v>
+        <v>0.0007834114695638385</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.9746181520226</v>
+        <v>1.419566738857853</v>
       </c>
       <c r="J10">
-        <v>0.1221753764974665</v>
+        <v>0.04182409512718799</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5341532004237308</v>
+        <v>0.546129190961409</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.995595086843537</v>
+        <v>0.7783157078666818</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.663341173848494</v>
+        <v>6.687230006918469</v>
       </c>
       <c r="C11">
-        <v>0.5259787875648385</v>
+        <v>1.542470137698501</v>
       </c>
       <c r="D11">
-        <v>0.02081416415385284</v>
+        <v>0.01413711771629877</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.566615979968333</v>
+        <v>3.196643945338934</v>
       </c>
       <c r="G11">
-        <v>0.002563190555188475</v>
+        <v>0.0007766022261519963</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.979729463269123</v>
+        <v>1.484243383656505</v>
       </c>
       <c r="J11">
-        <v>0.1217317269264111</v>
+        <v>0.04117725293412811</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5409073805986253</v>
+        <v>0.5823355729583994</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.979960181839239</v>
+        <v>0.7388275522813927</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.703409310137488</v>
+        <v>6.867979912647229</v>
       </c>
       <c r="C12">
-        <v>0.5363600521629905</v>
+        <v>1.586766262189769</v>
       </c>
       <c r="D12">
-        <v>0.02093569682340579</v>
+        <v>0.01463983577373007</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.575254335010754</v>
+        <v>3.262246153137909</v>
       </c>
       <c r="G12">
-        <v>0.002561787238779547</v>
+        <v>0.0007740324676787029</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.981826657385469</v>
+        <v>1.50957050051197</v>
       </c>
       <c r="J12">
-        <v>0.1215676297474833</v>
+        <v>0.04093889502940407</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.543502389313403</v>
+        <v>0.5962405636437609</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.974150263844777</v>
+        <v>0.7242673020615982</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.694768152185759</v>
+        <v>6.828951057271865</v>
       </c>
       <c r="C13">
-        <v>0.5341227212744002</v>
+        <v>1.577198697183519</v>
       </c>
       <c r="D13">
-        <v>0.02090954947095014</v>
+        <v>0.01453067634446548</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.573380649539303</v>
+        <v>3.248040132102801</v>
       </c>
       <c r="G13">
-        <v>0.002562088287409951</v>
+        <v>0.0007745855763261774</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.981367786212815</v>
+        <v>1.504076928803642</v>
       </c>
       <c r="J13">
-        <v>0.1216027975422023</v>
+        <v>0.04098993238190296</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5429418459536208</v>
+        <v>0.5932367804919352</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.975396604548635</v>
+        <v>0.7273850521268486</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.666632302259416</v>
+        <v>6.702055351389106</v>
       </c>
       <c r="C14">
-        <v>0.5268321675737866</v>
+        <v>1.546102118035094</v>
       </c>
       <c r="D14">
-        <v>0.02082417489413224</v>
+        <v>0.01417808097431816</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.567320689203427</v>
+        <v>3.202006535394418</v>
       </c>
       <c r="G14">
-        <v>0.002563074571331914</v>
+        <v>0.0007763906546641631</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.979898756140727</v>
+        <v>1.486309685643249</v>
       </c>
       <c r="J14">
-        <v>0.1217181483718548</v>
+        <v>0.04115750952440322</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5411201247554374</v>
+        <v>0.5834754884428293</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.979479975836064</v>
+        <v>0.7376215874125052</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.649432721242135</v>
+        <v>6.624618215547798</v>
       </c>
       <c r="C15">
-        <v>0.5223709900527638</v>
+        <v>1.527133643098011</v>
       </c>
       <c r="D15">
-        <v>0.02077180107144905</v>
+        <v>0.01396464905327122</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.56364759182236</v>
+        <v>3.174032329972619</v>
       </c>
       <c r="G15">
-        <v>0.002563682159067787</v>
+        <v>0.0007774973568130754</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.979020009526252</v>
+        <v>1.475538788252109</v>
       </c>
       <c r="J15">
-        <v>0.1217893121650757</v>
+        <v>0.04126102116389774</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5400091330667181</v>
+        <v>0.5775225582757031</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.981995584715008</v>
+        <v>0.7439440134088997</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.551395936781603</v>
+        <v>6.185051149610501</v>
       </c>
       <c r="C16">
-        <v>0.4968742037954712</v>
+        <v>1.419571105531418</v>
       </c>
       <c r="D16">
-        <v>0.02047041903145264</v>
+        <v>0.01277786134774139</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.543192119383605</v>
+        <v>3.016968477904925</v>
       </c>
       <c r="G16">
-        <v>0.002567217149086649</v>
+        <v>0.0007838578752111719</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.974306690971957</v>
+        <v>1.415451045708465</v>
       </c>
       <c r="J16">
-        <v>0.1222049166967789</v>
+        <v>0.04186727526090195</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5337170224869254</v>
+        <v>0.5437887444053189</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.996632330753393</v>
+        <v>0.7809494423260972</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.491722992193274</v>
+        <v>5.918870856881995</v>
       </c>
       <c r="C17">
-        <v>0.4812932511466101</v>
+        <v>1.354524104754546</v>
       </c>
       <c r="D17">
-        <v>0.02028438259057452</v>
+        <v>0.01207945847838765</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.531171716754557</v>
+        <v>2.923336087685726</v>
       </c>
       <c r="G17">
-        <v>0.002569433297844114</v>
+        <v>0.0007877789289256202</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.97170225029538</v>
+        <v>1.379964487308015</v>
       </c>
       <c r="J17">
-        <v>0.1224668376859768</v>
+        <v>0.04225064834272807</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5299234864269238</v>
+        <v>0.5234118061990216</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.005808204079081</v>
+        <v>0.8043142189127863</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.457572878152519</v>
+        <v>5.766950854736706</v>
       </c>
       <c r="C18">
-        <v>0.4723535156290382</v>
+        <v>1.317427134979937</v>
       </c>
       <c r="D18">
-        <v>0.02017694394210778</v>
+        <v>0.01168762839810356</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.524451567987455</v>
+        <v>2.870415476324325</v>
       </c>
       <c r="G18">
-        <v>0.002570725488609922</v>
+        <v>0.0007900422152509091</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.970309460114706</v>
+        <v>1.3600271431999</v>
       </c>
       <c r="J18">
-        <v>0.1226200485505506</v>
+        <v>0.04247528587668636</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5277659578456166</v>
+        <v>0.5118001777005361</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.011158082775609</v>
+        <v>0.8179863041009554</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.446039778058037</v>
+        <v>5.715707048178274</v>
       </c>
       <c r="C19">
-        <v>0.4693304356524663</v>
+        <v>1.304918473497594</v>
       </c>
       <c r="D19">
-        <v>0.02014049101540394</v>
+        <v>0.01155656536904637</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.522209456352869</v>
+        <v>2.852651983468775</v>
       </c>
       <c r="G19">
-        <v>0.00257116601624155</v>
+        <v>0.0007908099885006422</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.969855930963149</v>
+        <v>1.353355162213063</v>
       </c>
       <c r="J19">
-        <v>0.1226723631971183</v>
+        <v>0.04255204675195401</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5270396473714243</v>
+        <v>0.5078866079710451</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.012981841014991</v>
+        <v>0.8226545631233577</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.498057451020486</v>
+        <v>5.947081938802853</v>
       </c>
       <c r="C20">
-        <v>0.4829495866722482</v>
+        <v>1.361415103112847</v>
       </c>
       <c r="D20">
-        <v>0.02030423124861969</v>
+        <v>0.01215276072327853</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.532431253828065</v>
+        <v>2.933205292112831</v>
       </c>
       <c r="G20">
-        <v>0.002569195572537364</v>
+        <v>0.0007873607196187035</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.971968602097633</v>
+        <v>1.383692385043219</v>
       </c>
       <c r="J20">
-        <v>0.1224386907732695</v>
+        <v>0.0422094083194775</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5303247878436821</v>
+        <v>0.5255695452798506</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.004823945623571</v>
+        <v>0.8018026280737161</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.674889304310398</v>
+        <v>6.739266604930151</v>
       </c>
       <c r="C21">
-        <v>0.5289726414971483</v>
+        <v>1.555219274930835</v>
       </c>
       <c r="D21">
-        <v>0.02084926795546949</v>
+        <v>0.01428111021357736</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.569092557023879</v>
+        <v>3.215480892447118</v>
       </c>
       <c r="G21">
-        <v>0.002562784154946245</v>
+        <v>0.0007758602489747901</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.980325852006857</v>
+        <v>1.491504802997724</v>
       </c>
       <c r="J21">
-        <v>0.1216841611683694</v>
+        <v>0.04110810713195256</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5416541944507998</v>
+        <v>0.5863371173746117</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.978277583595535</v>
+        <v>0.7346039135231877</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.791999661789475</v>
+        <v>7.269718438346445</v>
       </c>
       <c r="C22">
-        <v>0.5592520627670297</v>
+        <v>1.685341394150555</v>
       </c>
       <c r="D22">
-        <v>0.02120188968329195</v>
+        <v>0.01578308785073723</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.594788219805594</v>
+        <v>3.409750521606668</v>
       </c>
       <c r="G22">
-        <v>0.002558748932523246</v>
+        <v>0.0007683932783645877</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.986730422557542</v>
+        <v>1.56689381049577</v>
       </c>
       <c r="J22">
-        <v>0.1212137800318018</v>
+        <v>0.04042687815715418</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5492763292830602</v>
+        <v>0.6272000270277545</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.961573329270614</v>
+        <v>0.6929956172796352</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.729354343073112</v>
+        <v>6.985327218459361</v>
       </c>
       <c r="C23">
-        <v>0.5430727751992208</v>
+        <v>1.61554235505497</v>
       </c>
       <c r="D23">
-        <v>0.02101400348517224</v>
+        <v>0.01497007070597434</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.580914645627018</v>
+        <v>3.305092719618244</v>
       </c>
       <c r="G23">
-        <v>0.002560888472099108</v>
+        <v>0.000772375186301244</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.983225653933246</v>
+        <v>1.526169138805756</v>
       </c>
       <c r="J23">
-        <v>0.1214627525971448</v>
+        <v>0.04078684583046943</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.545188315536123</v>
+        <v>0.6052762507769955</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.970429521267704</v>
+        <v>0.7149791588806309</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.495193154312801</v>
+        <v>5.934324272708238</v>
       </c>
       <c r="C24">
-        <v>0.4822007014853966</v>
+        <v>1.358298756907743</v>
       </c>
       <c r="D24">
-        <v>0.02029525918032427</v>
+        <v>0.01211959083385494</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.531861223743675</v>
+        <v>2.928740606148637</v>
       </c>
       <c r="G24">
-        <v>0.002569302991709379</v>
+        <v>0.0007875497637636587</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.971847858899793</v>
+        <v>1.382005563625057</v>
       </c>
       <c r="J24">
-        <v>0.1224514078030632</v>
+        <v>0.04222803977303613</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5301432865100679</v>
+        <v>0.5245937114499242</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.00526869670469</v>
+        <v>0.8029373751841362</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.24919047076753</v>
+        <v>4.844810153965227</v>
       </c>
       <c r="C25">
-        <v>0.4173791349065255</v>
+        <v>1.09264247519792</v>
       </c>
       <c r="D25">
-        <v>0.0195031630458562</v>
+        <v>0.00941316737550224</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.486347040646393</v>
+        <v>2.557876052882392</v>
       </c>
       <c r="G25">
-        <v>0.002579049906938861</v>
+        <v>0.0008042333824364874</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.963594279161981</v>
+        <v>1.244304726594322</v>
       </c>
       <c r="J25">
-        <v>0.1236157752277496</v>
+        <v>0.04393979627611877</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5148479177941994</v>
+        <v>0.4416406200703022</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.045605704023902</v>
+        <v>0.9066353152613402</v>
       </c>
       <c r="O25">
         <v>0</v>
